--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -540,10 +540,10 @@
         <v>0.253618</v>
       </c>
       <c r="I2">
-        <v>0.05048828420497745</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="J2">
-        <v>0.05048828420497745</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.79139566666667</v>
+        <v>17.160689</v>
       </c>
       <c r="N2">
-        <v>56.374187</v>
+        <v>51.482067</v>
       </c>
       <c r="O2">
-        <v>0.6345136365109286</v>
+        <v>0.5879310549011342</v>
       </c>
       <c r="P2">
-        <v>0.6345136365109286</v>
+        <v>0.5879310549011342</v>
       </c>
       <c r="Q2">
-        <v>1.588612062062889</v>
+        <v>1.450753207600667</v>
       </c>
       <c r="R2">
-        <v>14.297508558566</v>
+        <v>13.056778868406</v>
       </c>
       <c r="S2">
-        <v>0.03203550481209752</v>
+        <v>0.02464492805710961</v>
       </c>
       <c r="T2">
-        <v>0.03203550481209752</v>
+        <v>0.02464492805710961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.253618</v>
       </c>
       <c r="I3">
-        <v>0.05048828420497745</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="J3">
-        <v>0.05048828420497745</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>25.307519</v>
       </c>
       <c r="O3">
-        <v>0.2848460752393541</v>
+        <v>0.289014742601545</v>
       </c>
       <c r="P3">
-        <v>0.2848460752393541</v>
+        <v>0.289014742601545</v>
       </c>
       <c r="Q3">
         <v>0.7131602615268889</v>
@@ -632,10 +632,10 @@
         <v>6.418442353742</v>
       </c>
       <c r="S3">
-        <v>0.0143813896013569</v>
+        <v>0.01211493674212682</v>
       </c>
       <c r="T3">
-        <v>0.0143813896013569</v>
+        <v>0.01211493674212682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.253618</v>
       </c>
       <c r="I4">
-        <v>0.05048828420497745</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="J4">
-        <v>0.05048828420497745</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.388197</v>
+        <v>3.591739</v>
       </c>
       <c r="N4">
-        <v>7.164591</v>
+        <v>10.775217</v>
       </c>
       <c r="O4">
-        <v>0.08064028824971738</v>
+        <v>0.1230542024973208</v>
       </c>
       <c r="P4">
-        <v>0.08064028824971738</v>
+        <v>0.1230542024973208</v>
       </c>
       <c r="Q4">
-        <v>0.2018965822486667</v>
+        <v>0.3036432205673333</v>
       </c>
       <c r="R4">
-        <v>1.817069240238</v>
+        <v>2.732788985106</v>
       </c>
       <c r="S4">
-        <v>0.004071389791523035</v>
+        <v>0.005158193196958165</v>
       </c>
       <c r="T4">
-        <v>0.004071389791523035</v>
+        <v>0.005158193196958165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.305221</v>
       </c>
       <c r="I5">
-        <v>0.8570496629310111</v>
+        <v>0.7115681992777912</v>
       </c>
       <c r="J5">
-        <v>0.8570496629310111</v>
+        <v>0.7115681992777912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.79139566666667</v>
+        <v>17.160689</v>
       </c>
       <c r="N5">
-        <v>56.374187</v>
+        <v>51.482067</v>
       </c>
       <c r="O5">
-        <v>0.6345136365109286</v>
+        <v>0.5879310549011342</v>
       </c>
       <c r="P5">
-        <v>0.6345136365109286</v>
+        <v>0.5879310549011342</v>
       </c>
       <c r="Q5">
-        <v>26.96703708114744</v>
+        <v>24.62685288575634</v>
       </c>
       <c r="R5">
-        <v>242.703333730327</v>
+        <v>221.641675971807</v>
       </c>
       <c r="S5">
-        <v>0.5438096982968215</v>
+        <v>0.4183530420354923</v>
       </c>
       <c r="T5">
-        <v>0.5438096982968215</v>
+        <v>0.4183530420354923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.305221</v>
       </c>
       <c r="I6">
-        <v>0.8570496629310111</v>
+        <v>0.7115681992777912</v>
       </c>
       <c r="J6">
-        <v>0.8570496629310111</v>
+        <v>0.7115681992777912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>25.307519</v>
       </c>
       <c r="O6">
-        <v>0.2848460752393541</v>
+        <v>0.289014742601545</v>
       </c>
       <c r="P6">
-        <v>0.2848460752393541</v>
+        <v>0.289014742601545</v>
       </c>
       <c r="Q6">
         <v>12.10605136185544</v>
@@ -818,10 +818,10 @@
         <v>108.954462256699</v>
       </c>
       <c r="S6">
-        <v>0.2441272327711099</v>
+        <v>0.2056536999577157</v>
       </c>
       <c r="T6">
-        <v>0.2441272327711099</v>
+        <v>0.2056536999577157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.305221</v>
       </c>
       <c r="I7">
-        <v>0.8570496629310111</v>
+        <v>0.7115681992777912</v>
       </c>
       <c r="J7">
-        <v>0.8570496629310111</v>
+        <v>0.7115681992777912</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.388197</v>
+        <v>3.591739</v>
       </c>
       <c r="N7">
-        <v>7.164591</v>
+        <v>10.775217</v>
       </c>
       <c r="O7">
-        <v>0.08064028824971738</v>
+        <v>0.1230542024973208</v>
       </c>
       <c r="P7">
-        <v>0.08064028824971738</v>
+        <v>0.1230542024973208</v>
       </c>
       <c r="Q7">
-        <v>3.427238625512333</v>
+        <v>5.154410056439667</v>
       </c>
       <c r="R7">
-        <v>30.845147629611</v>
+        <v>46.38969050795699</v>
       </c>
       <c r="S7">
-        <v>0.06911273186307985</v>
+        <v>0.08756145728458321</v>
       </c>
       <c r="T7">
-        <v>0.06911273186307985</v>
+        <v>0.08756145728458321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1548216666666667</v>
+        <v>0.497163</v>
       </c>
       <c r="H8">
-        <v>0.464465</v>
+        <v>1.491489</v>
       </c>
       <c r="I8">
-        <v>0.09246205286401142</v>
+        <v>0.2465137427260142</v>
       </c>
       <c r="J8">
-        <v>0.09246205286401142</v>
+        <v>0.2465137427260142</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.79139566666667</v>
+        <v>17.160689</v>
       </c>
       <c r="N8">
-        <v>56.374187</v>
+        <v>51.482067</v>
       </c>
       <c r="O8">
-        <v>0.6345136365109286</v>
+        <v>0.5879310549011342</v>
       </c>
       <c r="P8">
-        <v>0.6345136365109286</v>
+        <v>0.5879310549011342</v>
       </c>
       <c r="Q8">
-        <v>2.909315196106111</v>
+        <v>8.531659625307</v>
       </c>
       <c r="R8">
-        <v>26.183836764955</v>
+        <v>76.78493662776299</v>
       </c>
       <c r="S8">
-        <v>0.05866843340200961</v>
+        <v>0.1449330848085323</v>
       </c>
       <c r="T8">
-        <v>0.05866843340200961</v>
+        <v>0.1449330848085323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1548216666666667</v>
+        <v>0.497163</v>
       </c>
       <c r="H9">
-        <v>0.464465</v>
+        <v>1.491489</v>
       </c>
       <c r="I9">
-        <v>0.09246205286401142</v>
+        <v>0.2465137427260142</v>
       </c>
       <c r="J9">
-        <v>0.09246205286401142</v>
+        <v>0.2465137427260142</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>25.307519</v>
       </c>
       <c r="O9">
-        <v>0.2848460752393541</v>
+        <v>0.289014742601545</v>
       </c>
       <c r="P9">
-        <v>0.2848460752393541</v>
+        <v>0.289014742601545</v>
       </c>
       <c r="Q9">
-        <v>1.306050756926111</v>
+        <v>4.193987356199</v>
       </c>
       <c r="R9">
-        <v>11.754456812335</v>
+        <v>37.745886205791</v>
       </c>
       <c r="S9">
-        <v>0.02633745286688734</v>
+        <v>0.07124610590170249</v>
       </c>
       <c r="T9">
-        <v>0.02633745286688734</v>
+        <v>0.07124610590170248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1548216666666667</v>
+        <v>0.497163</v>
       </c>
       <c r="H10">
-        <v>0.464465</v>
+        <v>1.491489</v>
       </c>
       <c r="I10">
-        <v>0.09246205286401142</v>
+        <v>0.2465137427260142</v>
       </c>
       <c r="J10">
-        <v>0.09246205286401142</v>
+        <v>0.2465137427260142</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.388197</v>
+        <v>3.591739</v>
       </c>
       <c r="N10">
-        <v>7.164591</v>
+        <v>10.775217</v>
       </c>
       <c r="O10">
-        <v>0.08064028824971738</v>
+        <v>0.1230542024973208</v>
       </c>
       <c r="P10">
-        <v>0.08064028824971738</v>
+        <v>0.1230542024973208</v>
       </c>
       <c r="Q10">
-        <v>0.3697446398683333</v>
+        <v>1.785679736457</v>
       </c>
       <c r="R10">
-        <v>3.327701758815</v>
+        <v>16.071117628113</v>
       </c>
       <c r="S10">
-        <v>0.007456166595114487</v>
+        <v>0.03033455201577939</v>
       </c>
       <c r="T10">
-        <v>0.007456166595114487</v>
+        <v>0.03033455201577938</v>
       </c>
     </row>
   </sheetData>
